--- a/exam/test.xlsx
+++ b/exam/test.xlsx
@@ -28,10 +28,10 @@
     <t>message</t>
   </si>
   <si>
-    <t>daffybnj</t>
-  </si>
-  <si>
-    <t>kjnkjnkjn@knkjm</t>
+    <t>manju nath</t>
+  </si>
+  <si>
+    <t>classfly@asds</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>9342564881</v>
+        <v>9731605087</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>

--- a/exam/test.xlsx
+++ b/exam/test.xlsx
@@ -28,10 +28,10 @@
     <t>message</t>
   </si>
   <si>
-    <t>manju nath</t>
-  </si>
-  <si>
-    <t>classfly@asds</t>
+    <t>ManojKashyap</t>
+  </si>
+  <si>
+    <t>manoj.manina@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -387,12 +387,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -414,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>9731605087</v>
+        <v>8861528756</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>

--- a/exam/test.xlsx
+++ b/exam/test.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -28,17 +29,92 @@
     <t>message</t>
   </si>
   <si>
-    <t>ManojKashyap</t>
-  </si>
-  <si>
-    <t>manoj.manina@gmail.com</t>
+    <t>1KT19CS002</t>
+  </si>
+  <si>
+    <t>AASIF RAJA</t>
+  </si>
+  <si>
+    <t>Asifraja.cse@skit.org.in</t>
+  </si>
+  <si>
+    <t>1KT19CS004</t>
+  </si>
+  <si>
+    <t>ABHISHEK PRASAD</t>
+  </si>
+  <si>
+    <t>Abhishekprasad.cse@skit.org.in</t>
+  </si>
+  <si>
+    <t>1KT19CS006</t>
+  </si>
+  <si>
+    <t>AISHWARYA ABHISHEK</t>
+  </si>
+  <si>
+    <t>Aishwaryaabhishek.cse@skit.org.in</t>
+  </si>
+  <si>
+    <t>1KT19CS007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJAY </t>
+  </si>
+  <si>
+    <t>Ajay.cse@skit.org.in</t>
+  </si>
+  <si>
+    <t>1KT19CS029</t>
+  </si>
+  <si>
+    <t>HIMANSHU KUMAR</t>
+  </si>
+  <si>
+    <t>Himanshukumar.cse@skit.org.in</t>
+  </si>
+  <si>
+    <t>1KT19CS017</t>
+  </si>
+  <si>
+    <t>BASHUDEV KUMAR YADAV</t>
+  </si>
+  <si>
+    <t>Bashudevkyadav.cse@skit.org.in</t>
+  </si>
+  <si>
+    <t>1KT19CS035</t>
+  </si>
+  <si>
+    <t>KUSHAL MS</t>
+  </si>
+  <si>
+    <t>Kushalms.cse@skit.org.in</t>
+  </si>
+  <si>
+    <t>1KT19CS014</t>
+  </si>
+  <si>
+    <t>ARIJIT HALDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishanhaldar2001@gmail.com </t>
+  </si>
+  <si>
+    <t>1KT19CS019</t>
+  </si>
+  <si>
+    <t>DEEPAK KUMAR SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepakkumarsharma.cse@skit.org.in </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +130,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -63,10 +145,71 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -76,9 +219,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -384,23 +551,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -410,20 +578,188 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9">
+        <v>6295705310</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>8861528756</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:Ishanhaldar2001@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>7481051786</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8927274473</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7378004840</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8154032766</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8409691241</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6360911061</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9113973047</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6361526933</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="mailto:Kushalms.cse@skit.org.in"/>
+    <hyperlink ref="C6" r:id="rId2" display="mailto:Bashudevkyadav.cse@skit.org.in"/>
+    <hyperlink ref="C5" r:id="rId3" display="mailto:Himanshukumar.cse@skit.org.in"/>
+    <hyperlink ref="C4" r:id="rId4" display="mailto:Ajay.cse@skit.org.in"/>
+    <hyperlink ref="C3" r:id="rId5" display="mailto:Aishwaryaabhishek.cse@skit.org.in"/>
+    <hyperlink ref="C2" r:id="rId6" display="mailto:Abhishekprasad.cse@skit.org.in"/>
+    <hyperlink ref="C1" r:id="rId7" display="mailto:Asifraja.cse@skit.org.in"/>
+    <hyperlink ref="C8" r:id="rId8" display="mailto:Deepakkumarsharma.cse@skit.org.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exam/test.xlsx
+++ b/exam/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t xml:space="preserve">Deepakkumarsharma.cse@skit.org.in </t>
+  </si>
+  <si>
+    <t>Hariom Kumar</t>
+  </si>
+  <si>
+    <t>8434440478</t>
+  </si>
+  <si>
+    <t>omharikumar124@gmail.com</t>
+  </si>
+  <si>
+    <t>Ujjwal Kumar Paswan</t>
+  </si>
+  <si>
+    <t>8592031812</t>
+  </si>
+  <si>
+    <t>rockinguzal@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -554,7 +572,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,18 +596,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9">
-        <v>6295705310</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>27</v>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,25 +668,22 @@
       <c r="A13" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="mailto:Ishanhaldar2001@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -748,6 +772,17 @@
       </c>
       <c r="C8" s="6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6295705310</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -760,6 +795,7 @@
     <hyperlink ref="C2" r:id="rId6" display="mailto:Abhishekprasad.cse@skit.org.in"/>
     <hyperlink ref="C1" r:id="rId7" display="mailto:Asifraja.cse@skit.org.in"/>
     <hyperlink ref="C8" r:id="rId8" display="mailto:Deepakkumarsharma.cse@skit.org.in"/>
+    <hyperlink ref="C9" r:id="rId9" display="mailto:Ishanhaldar2001@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exam/test.xlsx
+++ b/exam/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -29,103 +29,415 @@
     <t>message</t>
   </si>
   <si>
-    <t>1KT19CS002</t>
-  </si>
-  <si>
     <t>AASIF RAJA</t>
   </si>
   <si>
     <t>Asifraja.cse@skit.org.in</t>
   </si>
   <si>
-    <t>1KT19CS004</t>
-  </si>
-  <si>
     <t>ABHISHEK PRASAD</t>
   </si>
   <si>
     <t>Abhishekprasad.cse@skit.org.in</t>
   </si>
   <si>
-    <t>1KT19CS006</t>
-  </si>
-  <si>
     <t>AISHWARYA ABHISHEK</t>
   </si>
   <si>
     <t>Aishwaryaabhishek.cse@skit.org.in</t>
   </si>
   <si>
-    <t>1KT19CS007</t>
-  </si>
-  <si>
     <t xml:space="preserve">AJAY </t>
   </si>
   <si>
     <t>Ajay.cse@skit.org.in</t>
   </si>
   <si>
-    <t>1KT19CS029</t>
-  </si>
-  <si>
     <t>HIMANSHU KUMAR</t>
   </si>
   <si>
     <t>Himanshukumar.cse@skit.org.in</t>
   </si>
   <si>
-    <t>1KT19CS017</t>
-  </si>
-  <si>
     <t>BASHUDEV KUMAR YADAV</t>
   </si>
   <si>
     <t>Bashudevkyadav.cse@skit.org.in</t>
   </si>
   <si>
-    <t>1KT19CS035</t>
-  </si>
-  <si>
     <t>KUSHAL MS</t>
   </si>
   <si>
     <t>Kushalms.cse@skit.org.in</t>
   </si>
   <si>
-    <t>1KT19CS014</t>
-  </si>
-  <si>
     <t>ARIJIT HALDAR</t>
   </si>
   <si>
     <t xml:space="preserve">Ishanhaldar2001@gmail.com </t>
   </si>
   <si>
-    <t>1KT19CS019</t>
-  </si>
-  <si>
     <t>DEEPAK KUMAR SHARMA</t>
   </si>
   <si>
     <t xml:space="preserve">Deepakkumarsharma.cse@skit.org.in </t>
   </si>
   <si>
-    <t>Hariom Kumar</t>
-  </si>
-  <si>
-    <t>8434440478</t>
-  </si>
-  <si>
-    <t>omharikumar124@gmail.com</t>
-  </si>
-  <si>
-    <t>Ujjwal Kumar Paswan</t>
-  </si>
-  <si>
-    <t>8592031812</t>
-  </si>
-  <si>
-    <t>rockinguzal@gmail.com</t>
+    <t>RAVI DAS</t>
+  </si>
+  <si>
+    <t>Aayush Gosar</t>
+  </si>
+  <si>
+    <t>aayush7gosar@gmail.com</t>
+  </si>
+  <si>
+    <t>A K S H A Y H A N D E</t>
+  </si>
+  <si>
+    <t>akshayhande222@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhishekBharti</t>
+  </si>
+  <si>
+    <t>abhisheklinkedin27@gmail.com</t>
+  </si>
+  <si>
+    <t>Aisha Tayyaba</t>
+  </si>
+  <si>
+    <t>aisha17cs03@gmail.com</t>
+  </si>
+  <si>
+    <t>Anu priya</t>
+  </si>
+  <si>
+    <t>8918542055</t>
+  </si>
+  <si>
+    <t>anupriya7856@gmail.com</t>
+  </si>
+  <si>
+    <t>ASHISH ANIL DHAGE</t>
+  </si>
+  <si>
+    <t>8904275225</t>
+  </si>
+  <si>
+    <t>ashishanildhage@gmail.com</t>
+  </si>
+  <si>
+    <t>Bhisma Paikaray</t>
+  </si>
+  <si>
+    <t>8455894804</t>
+  </si>
+  <si>
+    <t>paikaraybhisma@gmail.com</t>
+  </si>
+  <si>
+    <t>Chinmoy Das</t>
+  </si>
+  <si>
+    <t>9127069615</t>
+  </si>
+  <si>
+    <t>chinm3333@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepika Singireddi</t>
+  </si>
+  <si>
+    <t>7901695807</t>
+  </si>
+  <si>
+    <t>deepikasingireddi@gmail.com</t>
+  </si>
+  <si>
+    <t>RAJAN RAJGOR</t>
+  </si>
+  <si>
+    <t>9537296028</t>
+  </si>
+  <si>
+    <t>rajanr877@gmail.com</t>
+  </si>
+  <si>
+    <t>G A U T A M K R I S H N A</t>
+  </si>
+  <si>
+    <t>9051908986</t>
+  </si>
+  <si>
+    <t>gkrishna52@gmail.com</t>
+  </si>
+  <si>
+    <t>Gourav Oberai</t>
+  </si>
+  <si>
+    <t>9877172188</t>
+  </si>
+  <si>
+    <t>gauravoberai5399@gmail.com</t>
+  </si>
+  <si>
+    <t>GUPTA DEVKUMAR</t>
+  </si>
+  <si>
+    <t>8866573839</t>
+  </si>
+  <si>
+    <t>gdev4534@gmail.com</t>
+  </si>
+  <si>
+    <t>Krushnakant Joshi</t>
+  </si>
+  <si>
+    <t>8788439863</t>
+  </si>
+  <si>
+    <t>krushnakantjoshi741@gmail.com</t>
+  </si>
+  <si>
+    <t>KUSHAGGR KASHYAP</t>
+  </si>
+  <si>
+    <t>8218861680</t>
+  </si>
+  <si>
+    <t>kushaggrkashyap2014@gmail.com</t>
+  </si>
+  <si>
+    <t>Mallesh G.</t>
+  </si>
+  <si>
+    <t>9705993549</t>
+  </si>
+  <si>
+    <t>malleshyadavgovinkadi@gmail.com</t>
+  </si>
+  <si>
+    <t>MayankAgrawal</t>
+  </si>
+  <si>
+    <t>6260685116</t>
+  </si>
+  <si>
+    <t>mayankagrawal6162@gmail.com</t>
+  </si>
+  <si>
+    <t>Namrata Bhovi</t>
+  </si>
+  <si>
+    <t>7975283581</t>
+  </si>
+  <si>
+    <t>namratabhovi@gmail.com</t>
+  </si>
+  <si>
+    <t>NAVEEN MADABOYINA</t>
+  </si>
+  <si>
+    <t>7989893115</t>
+  </si>
+  <si>
+    <t>naveenmadaboyina76@gmail.com</t>
+  </si>
+  <si>
+    <t>Jatin</t>
+  </si>
+  <si>
+    <t>9131695830</t>
+  </si>
+  <si>
+    <t>erjatinyadav@gmail.com</t>
+  </si>
+  <si>
+    <t>PRATIBHA BHARTI</t>
+  </si>
+  <si>
+    <t>7070618818</t>
+  </si>
+  <si>
+    <t>Pratibhabharti1803@gmail.com</t>
+  </si>
+  <si>
+    <t>PRATIK WAWARE</t>
+  </si>
+  <si>
+    <t>7028877077</t>
+  </si>
+  <si>
+    <t>pratikwaware919@gmail.com</t>
+  </si>
+  <si>
+    <t>Priyadarshan Behera</t>
+  </si>
+  <si>
+    <t>8847857267</t>
+  </si>
+  <si>
+    <t>priyadarshan20behera@gmail.com</t>
+  </si>
+  <si>
+    <t>RAHUL BAISANE</t>
+  </si>
+  <si>
+    <t>9028057490</t>
+  </si>
+  <si>
+    <t>rbaisane24@gmail.com</t>
+  </si>
+  <si>
+    <t>9128279663</t>
+  </si>
+  <si>
+    <t>iravikds@gmail.com</t>
+  </si>
+  <si>
+    <t>Manan Purohit</t>
+  </si>
+  <si>
+    <t>7990686121</t>
+  </si>
+  <si>
+    <t>mananbit0@gmail.com</t>
+  </si>
+  <si>
+    <t>LAVISH GUPTA</t>
+  </si>
+  <si>
+    <t>7906029096</t>
+  </si>
+  <si>
+    <t>lavishg101@gmail.com</t>
+  </si>
+  <si>
+    <t>Roy Devpreyo</t>
+  </si>
+  <si>
+    <t>9959570184</t>
+  </si>
+  <si>
+    <t>roydevpreyo@gmail.com</t>
+  </si>
+  <si>
+    <t>Shakya Dutta</t>
+  </si>
+  <si>
+    <t>9875492943</t>
+  </si>
+  <si>
+    <t>shakyadutta@hotmail.com</t>
+  </si>
+  <si>
+    <t>SHARADA SHIVANAND SODDY</t>
+  </si>
+  <si>
+    <t>7875084105</t>
+  </si>
+  <si>
+    <t>sharadasoddy@gmail.com</t>
+  </si>
+  <si>
+    <t>Sajjad Hossain</t>
+  </si>
+  <si>
+    <t>8482070014</t>
+  </si>
+  <si>
+    <t>s.hossain417@gmail.com</t>
+  </si>
+  <si>
+    <t>SANKET GUPTA</t>
+  </si>
+  <si>
+    <t>8959298448</t>
+  </si>
+  <si>
+    <t>sanketgupta681@gmail.com</t>
+  </si>
+  <si>
+    <t>Shahebaj M. Solanki</t>
+  </si>
+  <si>
+    <t>8766517792</t>
+  </si>
+  <si>
+    <t>ssolanki2712@gmail.com</t>
+  </si>
+  <si>
+    <t>S.SHAHITH</t>
+  </si>
+  <si>
+    <t>7448544968</t>
+  </si>
+  <si>
+    <t>shahithrao2030@gmail.com</t>
+  </si>
+  <si>
+    <t>Shifa Banu</t>
+  </si>
+  <si>
+    <t>8547598364</t>
+  </si>
+  <si>
+    <t>shifabanum212@gmail.com</t>
+  </si>
+  <si>
+    <t>Venkata Sruthi Komaravolu</t>
+  </si>
+  <si>
+    <t>9441212456</t>
+  </si>
+  <si>
+    <t>sruthikv236@gmail.com</t>
+  </si>
+  <si>
+    <t>SUBRAT KUMAR SAHOO</t>
+  </si>
+  <si>
+    <t>8917610940</t>
+  </si>
+  <si>
+    <t>subratsahoo813@gmail.com</t>
+  </si>
+  <si>
+    <t>Sowmitra sudheer kumar T</t>
+  </si>
+  <si>
+    <t>9494806666</t>
+  </si>
+  <si>
+    <t>sudheerthota66@gmail.com</t>
+  </si>
+  <si>
+    <t>Suraj Bhosale</t>
+  </si>
+  <si>
+    <t>9665039503</t>
+  </si>
+  <si>
+    <t>sbhosale643@gmail.com</t>
+  </si>
+  <si>
+    <t>UMAR MUKTHAR T</t>
+  </si>
+  <si>
+    <t>6282435375</t>
+  </si>
+  <si>
+    <t>muktharmuthu1717@gmail.com</t>
+  </si>
+  <si>
+    <t>Wajid Areeb</t>
+  </si>
+  <si>
+    <t>7058485648</t>
+  </si>
+  <si>
+    <t>s.w.a.11wajid@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -163,7 +475,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,21 +535,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -257,13 +560,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,16 +871,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,7 +888,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -598,78 +900,510 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7">
+        <v>8169651857</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7">
+        <v>7558690343</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7">
+        <v>8709431097</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8840911178</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="4" t="s">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -688,101 +1422,101 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2">
         <v>7481051786</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
         <v>8927274473</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>7378004840</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>8154032766</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
         <v>8409691241</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>6360911061</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>9113973047</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5">
         <v>6361526933</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="9">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8">
         <v>6295705310</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
